--- a/Daily/Ljung_Box/First Difference/keyence.xlsx
+++ b/Daily/Ljung_Box/First Difference/keyence.xlsx
@@ -396,7 +396,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.091085009252137E-05</v>
+        <v>0.217754862071556</v>
+      </c>
+      <c r="C2">
+        <v>0.6407559513510106</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -404,7 +407,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.0700907622423667</v>
+        <v>0.2826049252096829</v>
+      </c>
+      <c r="C3">
+        <v>0.8682266658804462</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -412,10 +418,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1.445425807445205</v>
+        <v>0.2833890046573851</v>
       </c>
       <c r="C4">
-        <v>0.2292633409235557</v>
+        <v>0.9631216746227977</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -423,10 +429,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3.055408577219075</v>
+        <v>0.4087299146417383</v>
       </c>
       <c r="C5">
-        <v>0.2170333417537695</v>
+        <v>0.9817559394644648</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -434,10 +440,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3.104100180964909</v>
+        <v>0.5656956906936663</v>
       </c>
       <c r="C6">
-        <v>0.3758517966505103</v>
+        <v>0.9895199579245171</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -445,10 +451,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3.105988606569805</v>
+        <v>0.5682414463263903</v>
       </c>
       <c r="C7">
-        <v>0.5402477780569839</v>
+        <v>0.9969062788514453</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -456,10 +462,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>6.877255562184089</v>
+        <v>1.055440992102114</v>
       </c>
       <c r="C8">
-        <v>0.2299301986610538</v>
+        <v>0.9938839391100077</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -467,10 +473,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>7.029959314475984</v>
+        <v>1.065749660066011</v>
       </c>
       <c r="C9">
-        <v>0.3180854681284081</v>
+        <v>0.9977978599388282</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -478,10 +484,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>8.183032665340658</v>
+        <v>2.000276141564138</v>
       </c>
       <c r="C10">
-        <v>0.3167314358779021</v>
+        <v>0.9914632390776451</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -489,10 +495,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>8.190483165088811</v>
+        <v>2.311121664340987</v>
       </c>
       <c r="C11">
-        <v>0.4150879677099333</v>
+        <v>0.9933517270166251</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -500,10 +506,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>8.31493293850361</v>
+        <v>2.686413659938543</v>
       </c>
       <c r="C12">
-        <v>0.5027465039209567</v>
+        <v>0.9942550539432664</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -511,10 +517,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>9.384432221370766</v>
+        <v>3.538706763518603</v>
       </c>
       <c r="C13">
-        <v>0.4960490555236956</v>
+        <v>0.9903981250240336</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -522,10 +528,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>9.540608100263658</v>
+        <v>3.716336168326542</v>
       </c>
       <c r="C14">
-        <v>0.572120118738771</v>
+        <v>0.9938515217758724</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -533,10 +539,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>9.553552394269573</v>
+        <v>4.345393129348327</v>
       </c>
       <c r="C15">
-        <v>0.6550627008311025</v>
+        <v>0.9930039255013426</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -544,10 +550,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>10.21602706550569</v>
+        <v>6.118215302853528</v>
       </c>
       <c r="C16">
-        <v>0.6761808405633879</v>
+        <v>0.977692840811936</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -555,10 +561,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>10.68804700954286</v>
+        <v>6.444263973694682</v>
       </c>
       <c r="C17">
-        <v>0.7103498878384855</v>
+        <v>0.9825470082974376</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -566,10 +572,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>12.6365884287082</v>
+        <v>7.714354777030253</v>
       </c>
       <c r="C18">
-        <v>0.6303449035307132</v>
+        <v>0.9722790895835586</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -577,10 +583,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>13.10499265677133</v>
+        <v>7.718900332456625</v>
       </c>
       <c r="C19">
-        <v>0.665066086396884</v>
+        <v>0.9825337186111843</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -588,10 +594,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>13.55119297662288</v>
+        <v>7.921735783561049</v>
       </c>
       <c r="C20">
-        <v>0.6985771821990607</v>
+        <v>0.9874411986673152</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -599,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>13.60303349253654</v>
+        <v>8.008481573072192</v>
       </c>
       <c r="C21">
-        <v>0.7545780479209844</v>
+        <v>0.9918114976544481</v>
       </c>
     </row>
   </sheetData>
